--- a/biology/Médecine/Lotfi_Benbahmad/Lotfi_Benbahmad.xlsx
+++ b/biology/Médecine/Lotfi_Benbahmad/Lotfi_Benbahmad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lotfi Benbahmed (en arabe : لطفي بن باحمد), né le 2 décembre 1966 à Cherchell dans la wilaya de Tipaza, est un homme politique algérien.
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Etudes
-Diplômé en pharmacie de l'Université d'Alger en 1991.
-Certificat de troisième cycle spécialisé en gestion d'entreprise de l'Université de formation continue d'Alger en 1994.
-Carrière
-Directeur et directeur technique de la Corporation pharmaceutique de 1996 à 2019.
-Président du Conseil national de l'Ordre des pharmaciens de 1996 à 2020[2], et président de l'inter Ordre des pharmaciens d'Afrique depuis 2018[3].
+          <t>Etudes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Diplômé en pharmacie de l'Université d'Alger en 1991.
+Certificat de troisième cycle spécialisé en gestion d'entreprise de l'Université de formation continue d'Alger en 1994.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lotfi_Benbahmad</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotfi_Benbahmad</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Directeur et directeur technique de la Corporation pharmaceutique de 1996 à 2019.
+Président du Conseil national de l'Ordre des pharmaciens de 1996 à 2020, et président de l'inter Ordre des pharmaciens d'Afrique depuis 2018.
 Ministre délégué de l'Industrie pharmaceutique du 4 janvier 2020 au 23 juin 2020 ; puis ministre de l'Industrie pharmaceutique du 23 juin 2020 au 8 septembre 2022.</t>
         </is>
       </c>
